--- a/data/GHG_Portfolio_Data.xlsx
+++ b/data/GHG_Portfolio_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ee2fd0c31013e2b7/Desktop/Data/GHG Portfolio Risk/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{37810AED-EE8D-4B46-8785-9EDFC86BF5EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F7BCA95C-0045-491F-85CB-DB303011FDE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{F5541417-C4DD-4C87-BE0F-689FFEB8A16F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{A7F371C6-174C-4A62-8C70-6D08E4DF447B}"/>
   </bookViews>
   <sheets>
     <sheet name="Portfolio" sheetId="2" r:id="rId1"/>
@@ -1481,7 +1481,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FCC23D6-36C8-447A-B7AF-211208FE66E7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C38781C0-D907-4C4F-A339-9A8C30D3E388}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:IY25"/>
   <sheetViews>
@@ -16168,7 +16168,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4A94C42-6E99-4347-9816-59281EAFB921}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A26FDC83-D0C3-44F8-BAE7-659CDF3A2160}">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:K12"/>
   <sheetViews>
@@ -16193,7 +16193,7 @@
     <col min="13" max="16384" width="9.140625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="8" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5"/>
       <c r="B1" s="6" t="s">
         <v>261</v>
@@ -16226,7 +16226,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>261</v>
       </c>
@@ -16234,356 +16234,356 @@
         <v>1</v>
       </c>
       <c r="C2" s="8">
-        <v>0.96828532218933105</v>
+        <v>-0.24201750755310059</v>
       </c>
       <c r="D2" s="8">
-        <v>0.53573143482208252</v>
+        <v>0.31451284885406494</v>
       </c>
       <c r="E2" s="8">
-        <v>-0.4754638671875</v>
+        <v>-0.34771203994750977</v>
       </c>
       <c r="F2" s="8">
-        <v>-0.82353460788726807</v>
+        <v>0.34965217113494873</v>
       </c>
       <c r="G2" s="8">
-        <v>0.58329892158508301</v>
+        <v>-0.96740460395812988</v>
       </c>
       <c r="H2" s="8">
-        <v>-0.88192594051361084</v>
+        <v>-4.061579704284668E-3</v>
       </c>
       <c r="I2" s="8">
-        <v>-0.89477872848510742</v>
+        <v>0.75676918029785156</v>
       </c>
       <c r="J2" s="8">
-        <v>1.2306094169616699E-2</v>
+        <v>0.73690736293792725</v>
       </c>
       <c r="K2" s="10">
-        <v>-1.2892007827758789E-2</v>
+        <v>0.40594029426574707</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>268</v>
       </c>
       <c r="B3" s="8">
-        <v>0.96828532218933105</v>
+        <v>-0.24201750755310059</v>
       </c>
       <c r="C3" s="8">
         <v>1</v>
       </c>
       <c r="D3" s="8">
-        <v>0.84796810150146484</v>
+        <v>-0.11777067184448242</v>
       </c>
       <c r="E3" s="8">
-        <v>7.9674124717712402E-2</v>
+        <v>0.5689772367477417</v>
       </c>
       <c r="F3" s="8">
-        <v>-0.5993802547454834</v>
+        <v>0.81025862693786621</v>
       </c>
       <c r="G3" s="8">
-        <v>0.61163771152496338</v>
+        <v>-0.66447436809539795</v>
       </c>
       <c r="H3" s="8">
-        <v>-0.69739961624145508</v>
+        <v>-0.62444972991943359</v>
       </c>
       <c r="I3" s="8">
-        <v>0.56076323986053467</v>
+        <v>0.22086560726165771</v>
       </c>
       <c r="J3" s="8">
-        <v>0.2392890453338623</v>
+        <v>-0.48187804222106934</v>
       </c>
       <c r="K3" s="10">
-        <v>-0.18523871898651123</v>
+        <v>-0.19027078151702881</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>272</v>
       </c>
       <c r="B4" s="8">
-        <v>0.53573143482208252</v>
+        <v>0.31451284885406494</v>
       </c>
       <c r="C4" s="8">
-        <v>0.84796810150146484</v>
+        <v>-0.11777067184448242</v>
       </c>
       <c r="D4" s="8">
         <v>1</v>
       </c>
       <c r="E4" s="8">
-        <v>-0.3138892650604248</v>
+        <v>-0.8994743824005127</v>
       </c>
       <c r="F4" s="8">
-        <v>0.2680736780166626</v>
+        <v>0.75155937671661377</v>
       </c>
       <c r="G4" s="8">
-        <v>0.21546411514282227</v>
+        <v>-0.67153167724609375</v>
       </c>
       <c r="H4" s="8">
-        <v>-0.36828815937042236</v>
+        <v>0.79323327541351318</v>
       </c>
       <c r="I4" s="8">
-        <v>-0.9265902042388916</v>
+        <v>-0.25113558769226074</v>
       </c>
       <c r="J4" s="8">
-        <v>0.21349155902862549</v>
+        <v>-0.48091733455657959</v>
       </c>
       <c r="K4" s="10">
-        <v>0.86244106292724609</v>
+        <v>0.62314271926879883</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>276</v>
       </c>
       <c r="B5" s="8">
-        <v>-0.4754638671875</v>
+        <v>-0.34771203994750977</v>
       </c>
       <c r="C5" s="8">
-        <v>7.9674124717712402E-2</v>
+        <v>0.5689772367477417</v>
       </c>
       <c r="D5" s="8">
-        <v>-0.3138892650604248</v>
+        <v>-0.8994743824005127</v>
       </c>
       <c r="E5" s="8">
         <v>1</v>
       </c>
       <c r="F5" s="8">
-        <v>-7.9039096832275391E-2</v>
+        <v>-0.16670322418212891</v>
       </c>
       <c r="G5" s="8">
-        <v>-0.28754341602325439</v>
+        <v>1.9440054893493652E-2</v>
       </c>
       <c r="H5" s="8">
-        <v>-0.12869381904602051</v>
+        <v>-0.25437140464782715</v>
       </c>
       <c r="I5" s="8">
-        <v>-0.72734725475311279</v>
+        <v>-0.22099626064300537</v>
       </c>
       <c r="J5" s="8">
-        <v>-0.79957008361816406</v>
+        <v>-0.64261293411254883</v>
       </c>
       <c r="K5" s="10">
-        <v>-0.49751722812652588</v>
+        <v>0.48356139659881592</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>279</v>
       </c>
       <c r="B6" s="8">
-        <v>-0.82353460788726807</v>
+        <v>0.34965217113494873</v>
       </c>
       <c r="C6" s="8">
-        <v>-0.5993802547454834</v>
+        <v>0.81025862693786621</v>
       </c>
       <c r="D6" s="8">
-        <v>0.2680736780166626</v>
+        <v>0.75155937671661377</v>
       </c>
       <c r="E6" s="8">
-        <v>-7.9039096832275391E-2</v>
+        <v>-0.16670322418212891</v>
       </c>
       <c r="F6" s="8">
         <v>1</v>
       </c>
       <c r="G6" s="8">
-        <v>0.17106413841247559</v>
+        <v>-0.18787455558776855</v>
       </c>
       <c r="H6" s="8">
-        <v>-0.15326297283172607</v>
+        <v>-0.35289037227630615</v>
       </c>
       <c r="I6" s="8">
-        <v>0.33837604522705078</v>
+        <v>0.72117853164672852</v>
       </c>
       <c r="J6" s="8">
-        <v>0.88597714900970459</v>
+        <v>-0.30608570575714111</v>
       </c>
       <c r="K6" s="10">
-        <v>0.10811448097229004</v>
+        <v>-0.12467217445373535</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>287</v>
       </c>
       <c r="B7" s="8">
-        <v>0.58329892158508301</v>
+        <v>-0.96740460395812988</v>
       </c>
       <c r="C7" s="8">
-        <v>0.61163771152496338</v>
+        <v>-0.66447436809539795</v>
       </c>
       <c r="D7" s="8">
-        <v>0.21546411514282227</v>
+        <v>-0.67153167724609375</v>
       </c>
       <c r="E7" s="8">
-        <v>-0.28754341602325439</v>
+        <v>1.9440054893493652E-2</v>
       </c>
       <c r="F7" s="8">
-        <v>0.17106413841247559</v>
+        <v>-0.18787455558776855</v>
       </c>
       <c r="G7" s="8">
         <v>1</v>
       </c>
       <c r="H7" s="8">
-        <v>0.71280288696289063</v>
+        <v>0.54166555404663086</v>
       </c>
       <c r="I7" s="8">
-        <v>-0.47415030002593994</v>
+        <v>0.17187583446502686</v>
       </c>
       <c r="J7" s="8">
-        <v>-0.23475146293640137</v>
+        <v>-0.99498867988586426</v>
       </c>
       <c r="K7" s="10">
-        <v>-0.91105115413665771</v>
+        <v>-0.84403884410858154</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>291</v>
       </c>
       <c r="B8" s="8">
-        <v>-0.88192594051361084</v>
+        <v>-4.061579704284668E-3</v>
       </c>
       <c r="C8" s="8">
-        <v>-0.69739961624145508</v>
+        <v>-0.62444972991943359</v>
       </c>
       <c r="D8" s="8">
-        <v>-0.36828815937042236</v>
+        <v>0.79323327541351318</v>
       </c>
       <c r="E8" s="8">
-        <v>-0.12869381904602051</v>
+        <v>-0.25437140464782715</v>
       </c>
       <c r="F8" s="8">
-        <v>-0.15326297283172607</v>
+        <v>-0.35289037227630615</v>
       </c>
       <c r="G8" s="8">
-        <v>0.71280288696289063</v>
+        <v>0.54166555404663086</v>
       </c>
       <c r="H8" s="8">
         <v>1</v>
       </c>
       <c r="I8" s="8">
-        <v>0.68449807167053223</v>
+        <v>0.86311888694763184</v>
       </c>
       <c r="J8" s="8">
-        <v>-0.3053048849105835</v>
+        <v>0.48468410968780518</v>
       </c>
       <c r="K8" s="10">
-        <v>0.62825727462768555</v>
+        <v>-0.17873668670654297</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>296</v>
       </c>
       <c r="B9" s="8">
-        <v>-0.89477872848510742</v>
+        <v>0.75676918029785156</v>
       </c>
       <c r="C9" s="8">
-        <v>0.56076323986053467</v>
+        <v>0.22086560726165771</v>
       </c>
       <c r="D9" s="8">
-        <v>-0.9265902042388916</v>
+        <v>-0.25113558769226074</v>
       </c>
       <c r="E9" s="8">
-        <v>-0.72734725475311279</v>
+        <v>-0.22099626064300537</v>
       </c>
       <c r="F9" s="8">
-        <v>0.33837604522705078</v>
+        <v>0.72117853164672852</v>
       </c>
       <c r="G9" s="8">
-        <v>-0.47415030002593994</v>
+        <v>0.17187583446502686</v>
       </c>
       <c r="H9" s="8">
-        <v>0.68449807167053223</v>
+        <v>0.86311888694763184</v>
       </c>
       <c r="I9" s="8">
         <v>1</v>
       </c>
       <c r="J9" s="8">
-        <v>-0.92042684555053711</v>
+        <v>0.68177413940429688</v>
       </c>
       <c r="K9" s="10">
-        <v>-6.0102581977844238E-2</v>
+        <v>-0.32124960422515869</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>298</v>
       </c>
       <c r="B10" s="8">
-        <v>1.2306094169616699E-2</v>
+        <v>0.73690736293792725</v>
       </c>
       <c r="C10" s="8">
-        <v>0.2392890453338623</v>
+        <v>-0.48187804222106934</v>
       </c>
       <c r="D10" s="8">
-        <v>0.21349155902862549</v>
+        <v>-0.48091733455657959</v>
       </c>
       <c r="E10" s="8">
-        <v>-0.79957008361816406</v>
+        <v>-0.64261293411254883</v>
       </c>
       <c r="F10" s="8">
-        <v>0.88597714900970459</v>
+        <v>-0.30608570575714111</v>
       </c>
       <c r="G10" s="8">
-        <v>-0.23475146293640137</v>
+        <v>-0.99498867988586426</v>
       </c>
       <c r="H10" s="8">
-        <v>-0.3053048849105835</v>
+        <v>0.48468410968780518</v>
       </c>
       <c r="I10" s="8">
-        <v>-0.92042684555053711</v>
+        <v>0.68177413940429688</v>
       </c>
       <c r="J10" s="8">
         <v>1</v>
       </c>
       <c r="K10" s="10">
-        <v>9.1280698776245117E-2</v>
+        <v>0.42110848426818848</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
         <v>314</v>
       </c>
       <c r="B11" s="12">
-        <v>-1.2892007827758789E-2</v>
+        <v>0.40594029426574707</v>
       </c>
       <c r="C11" s="12">
-        <v>-0.18523871898651123</v>
+        <v>-0.19027078151702881</v>
       </c>
       <c r="D11" s="12">
-        <v>0.86244106292724609</v>
+        <v>0.62314271926879883</v>
       </c>
       <c r="E11" s="12">
-        <v>-0.49751722812652588</v>
+        <v>0.48356139659881592</v>
       </c>
       <c r="F11" s="12">
-        <v>0.10811448097229004</v>
+        <v>-0.12467217445373535</v>
       </c>
       <c r="G11" s="12">
-        <v>-0.91105115413665771</v>
+        <v>-0.84403884410858154</v>
       </c>
       <c r="H11" s="12">
-        <v>0.62825727462768555</v>
+        <v>-0.17873668670654297</v>
       </c>
       <c r="I11" s="12">
-        <v>-6.0102581977844238E-2</v>
+        <v>-0.32124960422515869</v>
       </c>
       <c r="J11" s="12">
-        <v>9.1280698776245117E-2</v>
+        <v>0.42110848426818848</v>
       </c>
       <c r="K11" s="13">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:11" s="8" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03D77C80-4CCC-4622-81D9-D1568BBD444B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6570AD9-53C5-41CA-8226-F37DD362A41B}">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:O16"/>
   <sheetViews>
@@ -16612,7 +16612,7 @@
     <col min="17" max="16384" width="9.140625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" s="8" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5"/>
       <c r="B1" s="6" t="s">
         <v>260</v>
@@ -16657,7 +16657,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>260</v>
       </c>
@@ -16665,657 +16665,657 @@
         <v>1</v>
       </c>
       <c r="C2" s="8">
-        <v>-0.41210031509399414</v>
+        <v>-0.50965213775634766</v>
       </c>
       <c r="D2" s="8">
-        <v>-0.93255674839019775</v>
+        <v>0.79089248180389404</v>
       </c>
       <c r="E2" s="8">
-        <v>0.99944281578063965</v>
+        <v>-0.34768557548522949</v>
       </c>
       <c r="F2" s="8">
-        <v>0.80368101596832275</v>
+        <v>-0.42256534099578857</v>
       </c>
       <c r="G2" s="8">
-        <v>0.8860015869140625</v>
+        <v>0.45882177352905273</v>
       </c>
       <c r="H2" s="8">
-        <v>0.71249759197235107</v>
+        <v>-0.58481276035308838</v>
       </c>
       <c r="I2" s="8">
-        <v>0.39798188209533691</v>
+        <v>0.67917227745056152</v>
       </c>
       <c r="J2" s="8">
-        <v>-0.56284224987030029</v>
+        <v>-0.20224320888519287</v>
       </c>
       <c r="K2" s="8">
-        <v>-0.14270162582397461</v>
+        <v>0.90066146850585938</v>
       </c>
       <c r="L2" s="8">
-        <v>-0.66117823123931885</v>
+        <v>-0.97155773639678955</v>
       </c>
       <c r="M2" s="8">
-        <v>-0.10883641242980957</v>
+        <v>-0.85325789451599121</v>
       </c>
       <c r="N2" s="8">
-        <v>-0.48294675350189209</v>
+        <v>-0.96238219738006592</v>
       </c>
       <c r="O2" s="10">
-        <v>-0.64506053924560547</v>
+        <v>-0.34074926376342773</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>267</v>
       </c>
       <c r="B3" s="8">
-        <v>-0.41210031509399414</v>
+        <v>-0.50965213775634766</v>
       </c>
       <c r="C3" s="8">
         <v>1</v>
       </c>
       <c r="D3" s="8">
-        <v>0.49526429176330566</v>
+        <v>-0.77713418006896973</v>
       </c>
       <c r="E3" s="8">
-        <v>0.37736618518829346</v>
+        <v>-0.17353379726409912</v>
       </c>
       <c r="F3" s="8">
-        <v>-0.52082204818725586</v>
+        <v>0.50508499145507813</v>
       </c>
       <c r="G3" s="8">
-        <v>-0.6140972375869751</v>
+        <v>-0.7099992036819458</v>
       </c>
       <c r="H3" s="8">
-        <v>-0.17769169807434082</v>
+        <v>-0.27062392234802246</v>
       </c>
       <c r="I3" s="8">
-        <v>-1.893460750579834E-2</v>
+        <v>-0.18135344982147217</v>
       </c>
       <c r="J3" s="8">
-        <v>0.54798603057861328</v>
+        <v>0.11804437637329102</v>
       </c>
       <c r="K3" s="8">
-        <v>8.773505687713623E-2</v>
+        <v>0.29114186763763428</v>
       </c>
       <c r="L3" s="8">
-        <v>0.65085530281066895</v>
+        <v>-0.41068196296691895</v>
       </c>
       <c r="M3" s="8">
-        <v>-0.66010081768035889</v>
+        <v>-9.7246527671813965E-2</v>
       </c>
       <c r="N3" s="8">
-        <v>-0.96464967727661133</v>
+        <v>-0.69480037689208984</v>
       </c>
       <c r="O3" s="10">
-        <v>0.31209695339202881</v>
+        <v>0.81859672069549561</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>271</v>
       </c>
       <c r="B4" s="8">
-        <v>-0.93255674839019775</v>
+        <v>0.79089248180389404</v>
       </c>
       <c r="C4" s="8">
-        <v>0.49526429176330566</v>
+        <v>-0.77713418006896973</v>
       </c>
       <c r="D4" s="8">
         <v>1</v>
       </c>
       <c r="E4" s="8">
-        <v>0.37579822540283203</v>
+        <v>-0.69464635848999023</v>
       </c>
       <c r="F4" s="8">
-        <v>0.40178382396697998</v>
+        <v>0.78255879878997803</v>
       </c>
       <c r="G4" s="8">
-        <v>-0.4044501781463623</v>
+        <v>-0.4844200611114502</v>
       </c>
       <c r="H4" s="8">
-        <v>0.41365253925323486</v>
+        <v>0.14703905582427979</v>
       </c>
       <c r="I4" s="8">
-        <v>0.66675138473510742</v>
+        <v>0.61055088043212891</v>
       </c>
       <c r="J4" s="8">
-        <v>0.78764474391937256</v>
+        <v>-0.37809669971466064</v>
       </c>
       <c r="K4" s="8">
-        <v>-0.85711503028869629</v>
+        <v>3.217625617980957E-2</v>
       </c>
       <c r="L4" s="8">
-        <v>0.30545294284820557</v>
+        <v>0.96809208393096924</v>
       </c>
       <c r="M4" s="8">
-        <v>-0.42488670349121094</v>
+        <v>0.3977808952331543</v>
       </c>
       <c r="N4" s="8">
-        <v>-0.35560047626495361</v>
+        <v>-0.15977728366851807</v>
       </c>
       <c r="O4" s="10">
-        <v>0.81794381141662598</v>
+        <v>0.54014372825622559</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>275</v>
       </c>
       <c r="B5" s="8">
-        <v>0.99944281578063965</v>
+        <v>-0.34768557548522949</v>
       </c>
       <c r="C5" s="8">
-        <v>0.37736618518829346</v>
+        <v>-0.17353379726409912</v>
       </c>
       <c r="D5" s="8">
-        <v>0.37579822540283203</v>
+        <v>-0.69464635848999023</v>
       </c>
       <c r="E5" s="8">
         <v>1</v>
       </c>
       <c r="F5" s="8">
-        <v>0.66167616844177246</v>
+        <v>0.64386296272277832</v>
       </c>
       <c r="G5" s="8">
-        <v>0.21355688571929932</v>
+        <v>-0.94350612163543701</v>
       </c>
       <c r="H5" s="8">
-        <v>-0.24770927429199219</v>
+        <v>-0.31163835525512695</v>
       </c>
       <c r="I5" s="8">
-        <v>-0.32011616230010986</v>
+        <v>0.97885644435882568</v>
       </c>
       <c r="J5" s="8">
-        <v>-0.77276206016540527</v>
+        <v>-0.40883851051330566</v>
       </c>
       <c r="K5" s="8">
-        <v>-0.88694465160369873</v>
+        <v>-0.55335366725921631</v>
       </c>
       <c r="L5" s="8">
-        <v>-0.5554347038269043</v>
+        <v>0.52256584167480469</v>
       </c>
       <c r="M5" s="8">
-        <v>0.50020825862884521</v>
+        <v>-1.4859437942504883E-3</v>
       </c>
       <c r="N5" s="8">
-        <v>0.20043063163757324</v>
+        <v>9.6847772598266602E-2</v>
       </c>
       <c r="O5" s="10">
-        <v>-0.45655477046966553</v>
+        <v>0.15174782276153564</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>278</v>
       </c>
       <c r="B6" s="8">
-        <v>0.80368101596832275</v>
+        <v>-0.42256534099578857</v>
       </c>
       <c r="C6" s="8">
-        <v>-0.52082204818725586</v>
+        <v>0.50508499145507813</v>
       </c>
       <c r="D6" s="8">
-        <v>0.40178382396697998</v>
+        <v>0.78255879878997803</v>
       </c>
       <c r="E6" s="8">
-        <v>0.66167616844177246</v>
+        <v>0.64386296272277832</v>
       </c>
       <c r="F6" s="8">
         <v>1</v>
       </c>
       <c r="G6" s="8">
-        <v>-0.50630903244018555</v>
+        <v>0.65579795837402344</v>
       </c>
       <c r="H6" s="8">
-        <v>-0.22663652896881104</v>
+        <v>5.6459307670593262E-2</v>
       </c>
       <c r="I6" s="8">
-        <v>-0.69508481025695801</v>
+        <v>-0.48311591148376465</v>
       </c>
       <c r="J6" s="8">
-        <v>0.80775034427642822</v>
+        <v>0.61588203907012939</v>
       </c>
       <c r="K6" s="8">
-        <v>0.67068386077880859</v>
+        <v>0.16551637649536133</v>
       </c>
       <c r="L6" s="8">
-        <v>-0.90648758411407471</v>
+        <v>0.16175687313079834</v>
       </c>
       <c r="M6" s="8">
-        <v>0.70771145820617676</v>
+        <v>-0.18613171577453613</v>
       </c>
       <c r="N6" s="8">
-        <v>-0.24219882488250732</v>
+        <v>0.1168895959854126</v>
       </c>
       <c r="O6" s="10">
-        <v>-0.48718500137329102</v>
+        <v>-0.13679981231689453</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>282</v>
       </c>
       <c r="B7" s="8">
-        <v>0.8860015869140625</v>
+        <v>0.45882177352905273</v>
       </c>
       <c r="C7" s="8">
-        <v>-0.6140972375869751</v>
+        <v>-0.7099992036819458</v>
       </c>
       <c r="D7" s="8">
-        <v>-0.4044501781463623</v>
+        <v>-0.4844200611114502</v>
       </c>
       <c r="E7" s="8">
-        <v>0.21355688571929932</v>
+        <v>-0.94350612163543701</v>
       </c>
       <c r="F7" s="8">
-        <v>-0.50630903244018555</v>
+        <v>0.65579795837402344</v>
       </c>
       <c r="G7" s="8">
         <v>1</v>
       </c>
       <c r="H7" s="8">
-        <v>-0.52581667900085449</v>
+        <v>-0.14902997016906738</v>
       </c>
       <c r="I7" s="8">
-        <v>0.81153500080108643</v>
+        <v>-0.65103185176849365</v>
       </c>
       <c r="J7" s="8">
-        <v>0.24333715438842773</v>
+        <v>-0.38076496124267578</v>
       </c>
       <c r="K7" s="8">
-        <v>0.96837937831878662</v>
+        <v>0.49706542491912842</v>
       </c>
       <c r="L7" s="8">
-        <v>0.82281851768493652</v>
+        <v>0.21134686470031738</v>
       </c>
       <c r="M7" s="8">
-        <v>-0.48816239833831787</v>
+        <v>0.8901444673538208</v>
       </c>
       <c r="N7" s="8">
-        <v>0.28429794311523438</v>
+        <v>0.56201314926147461</v>
       </c>
       <c r="O7" s="10">
-        <v>0.54208362102508545</v>
+        <v>0.465049147605896</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>285</v>
       </c>
       <c r="B8" s="8">
-        <v>0.71249759197235107</v>
+        <v>-0.58481276035308838</v>
       </c>
       <c r="C8" s="8">
-        <v>-0.17769169807434082</v>
+        <v>-0.27062392234802246</v>
       </c>
       <c r="D8" s="8">
-        <v>0.41365253925323486</v>
+        <v>0.14703905582427979</v>
       </c>
       <c r="E8" s="8">
-        <v>-0.24770927429199219</v>
+        <v>-0.31163835525512695</v>
       </c>
       <c r="F8" s="8">
-        <v>-0.22663652896881104</v>
+        <v>5.6459307670593262E-2</v>
       </c>
       <c r="G8" s="8">
-        <v>-0.52581667900085449</v>
+        <v>-0.14902997016906738</v>
       </c>
       <c r="H8" s="8">
         <v>1</v>
       </c>
       <c r="I8" s="8">
-        <v>2.1533966064453125E-2</v>
+        <v>0.38921499252319336</v>
       </c>
       <c r="J8" s="8">
-        <v>0.7802046537399292</v>
+        <v>-0.24836790561676025</v>
       </c>
       <c r="K8" s="8">
-        <v>-0.96145033836364746</v>
+        <v>-8.7059259414672852E-2</v>
       </c>
       <c r="L8" s="8">
-        <v>-1.8542170524597168E-2</v>
+        <v>-0.46391236782073975</v>
       </c>
       <c r="M8" s="8">
-        <v>-0.30544805526733398</v>
+        <v>0.96929931640625</v>
       </c>
       <c r="N8" s="8">
-        <v>0.48398244380950928</v>
+        <v>-0.91410458087921143</v>
       </c>
       <c r="O8" s="10">
-        <v>0.51714396476745605</v>
+        <v>-0.67411589622497559</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>293</v>
       </c>
       <c r="B9" s="8">
-        <v>0.39798188209533691</v>
+        <v>0.67917227745056152</v>
       </c>
       <c r="C9" s="8">
-        <v>-1.893460750579834E-2</v>
+        <v>-0.18135344982147217</v>
       </c>
       <c r="D9" s="8">
-        <v>0.66675138473510742</v>
+        <v>0.61055088043212891</v>
       </c>
       <c r="E9" s="8">
-        <v>-0.32011616230010986</v>
+        <v>0.97885644435882568</v>
       </c>
       <c r="F9" s="8">
-        <v>-0.69508481025695801</v>
+        <v>-0.48311591148376465</v>
       </c>
       <c r="G9" s="8">
-        <v>0.81153500080108643</v>
+        <v>-0.65103185176849365</v>
       </c>
       <c r="H9" s="8">
-        <v>2.1533966064453125E-2</v>
+        <v>0.38921499252319336</v>
       </c>
       <c r="I9" s="8">
         <v>1</v>
       </c>
       <c r="J9" s="8">
-        <v>0.5137183666229248</v>
+        <v>-0.19792723655700684</v>
       </c>
       <c r="K9" s="8">
-        <v>0.31326830387115479</v>
+        <v>0.80874741077423096</v>
       </c>
       <c r="L9" s="8">
-        <v>0.34086704254150391</v>
+        <v>1.6333103179931641E-2</v>
       </c>
       <c r="M9" s="8">
-        <v>0.73613059520721436</v>
+        <v>0.1828845739364624</v>
       </c>
       <c r="N9" s="8">
-        <v>0.42240452766418457</v>
+        <v>-0.18851017951965332</v>
       </c>
       <c r="O9" s="10">
-        <v>-0.22163569927215576</v>
+        <v>-0.88076627254486084</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>295</v>
       </c>
       <c r="B10" s="8">
-        <v>-0.56284224987030029</v>
+        <v>-0.20224320888519287</v>
       </c>
       <c r="C10" s="8">
-        <v>0.54798603057861328</v>
+        <v>0.11804437637329102</v>
       </c>
       <c r="D10" s="8">
-        <v>0.78764474391937256</v>
+        <v>-0.37809669971466064</v>
       </c>
       <c r="E10" s="8">
-        <v>-0.77276206016540527</v>
+        <v>-0.40883851051330566</v>
       </c>
       <c r="F10" s="8">
-        <v>0.80775034427642822</v>
+        <v>0.61588203907012939</v>
       </c>
       <c r="G10" s="8">
-        <v>0.24333715438842773</v>
+        <v>-0.38076496124267578</v>
       </c>
       <c r="H10" s="8">
-        <v>0.7802046537399292</v>
+        <v>-0.24836790561676025</v>
       </c>
       <c r="I10" s="8">
-        <v>0.5137183666229248</v>
+        <v>-0.19792723655700684</v>
       </c>
       <c r="J10" s="8">
         <v>1</v>
       </c>
       <c r="K10" s="8">
-        <v>0.90842390060424805</v>
+        <v>-0.43397045135498047</v>
       </c>
       <c r="L10" s="8">
-        <v>-0.86834204196929932</v>
+        <v>0.58719336986541748</v>
       </c>
       <c r="M10" s="8">
-        <v>0.71722960472106934</v>
+        <v>6.3979387283325195E-2</v>
       </c>
       <c r="N10" s="8">
-        <v>-0.63028848171234131</v>
+        <v>-0.88201701641082764</v>
       </c>
       <c r="O10" s="10">
-        <v>-0.68950080871582031</v>
+        <v>-0.51337862014770508</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>300</v>
       </c>
       <c r="B11" s="8">
-        <v>-0.14270162582397461</v>
+        <v>0.90066146850585938</v>
       </c>
       <c r="C11" s="8">
-        <v>8.773505687713623E-2</v>
+        <v>0.29114186763763428</v>
       </c>
       <c r="D11" s="8">
-        <v>-0.85711503028869629</v>
+        <v>3.217625617980957E-2</v>
       </c>
       <c r="E11" s="8">
-        <v>-0.88694465160369873</v>
+        <v>-0.55335366725921631</v>
       </c>
       <c r="F11" s="8">
-        <v>0.67068386077880859</v>
+        <v>0.16551637649536133</v>
       </c>
       <c r="G11" s="8">
-        <v>0.96837937831878662</v>
+        <v>0.49706542491912842</v>
       </c>
       <c r="H11" s="8">
-        <v>-0.96145033836364746</v>
+        <v>-8.7059259414672852E-2</v>
       </c>
       <c r="I11" s="8">
-        <v>0.31326830387115479</v>
+        <v>0.80874741077423096</v>
       </c>
       <c r="J11" s="8">
-        <v>0.90842390060424805</v>
+        <v>-0.43397045135498047</v>
       </c>
       <c r="K11" s="8">
         <v>1</v>
       </c>
       <c r="L11" s="8">
-        <v>-0.97277045249938965</v>
+        <v>0.71482253074645996</v>
       </c>
       <c r="M11" s="8">
-        <v>-0.16857230663299561</v>
+        <v>0.23014318943023682</v>
       </c>
       <c r="N11" s="8">
-        <v>-0.88492918014526367</v>
+        <v>-0.37632560729980469</v>
       </c>
       <c r="O11" s="10">
-        <v>0.14170682430267334</v>
+        <v>0.51714885234832764</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>303</v>
       </c>
       <c r="B12" s="8">
-        <v>-0.66117823123931885</v>
+        <v>-0.97155773639678955</v>
       </c>
       <c r="C12" s="8">
-        <v>0.65085530281066895</v>
+        <v>-0.41068196296691895</v>
       </c>
       <c r="D12" s="8">
-        <v>0.30545294284820557</v>
+        <v>0.96809208393096924</v>
       </c>
       <c r="E12" s="8">
-        <v>-0.5554347038269043</v>
+        <v>0.52256584167480469</v>
       </c>
       <c r="F12" s="8">
-        <v>-0.90648758411407471</v>
+        <v>0.16175687313079834</v>
       </c>
       <c r="G12" s="8">
-        <v>0.82281851768493652</v>
+        <v>0.21134686470031738</v>
       </c>
       <c r="H12" s="8">
-        <v>-1.8542170524597168E-2</v>
+        <v>-0.46391236782073975</v>
       </c>
       <c r="I12" s="8">
-        <v>0.34086704254150391</v>
+        <v>1.6333103179931641E-2</v>
       </c>
       <c r="J12" s="8">
-        <v>-0.86834204196929932</v>
+        <v>0.58719336986541748</v>
       </c>
       <c r="K12" s="8">
-        <v>-0.97277045249938965</v>
+        <v>0.71482253074645996</v>
       </c>
       <c r="L12" s="8">
         <v>1</v>
       </c>
       <c r="M12" s="8">
-        <v>0.19134807586669922</v>
+        <v>-0.82169294357299805</v>
       </c>
       <c r="N12" s="8">
-        <v>-0.50784790515899658</v>
+        <v>0.20608747005462646</v>
       </c>
       <c r="O12" s="10">
-        <v>-0.75975298881530762</v>
+        <v>0.90249514579772949</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
         <v>306</v>
       </c>
       <c r="B13" s="8">
-        <v>-0.10883641242980957</v>
+        <v>-0.85325789451599121</v>
       </c>
       <c r="C13" s="8">
-        <v>-0.66010081768035889</v>
+        <v>-9.7246527671813965E-2</v>
       </c>
       <c r="D13" s="8">
-        <v>-0.42488670349121094</v>
+        <v>0.3977808952331543</v>
       </c>
       <c r="E13" s="8">
-        <v>0.50020825862884521</v>
+        <v>-1.4859437942504883E-3</v>
       </c>
       <c r="F13" s="8">
-        <v>0.70771145820617676</v>
+        <v>-0.18613171577453613</v>
       </c>
       <c r="G13" s="8">
-        <v>-0.48816239833831787</v>
+        <v>0.8901444673538208</v>
       </c>
       <c r="H13" s="8">
-        <v>-0.30544805526733398</v>
+        <v>0.96929931640625</v>
       </c>
       <c r="I13" s="8">
-        <v>0.73613059520721436</v>
+        <v>0.1828845739364624</v>
       </c>
       <c r="J13" s="8">
-        <v>0.71722960472106934</v>
+        <v>6.3979387283325195E-2</v>
       </c>
       <c r="K13" s="8">
-        <v>-0.16857230663299561</v>
+        <v>0.23014318943023682</v>
       </c>
       <c r="L13" s="8">
-        <v>0.19134807586669922</v>
+        <v>-0.82169294357299805</v>
       </c>
       <c r="M13" s="8">
         <v>1</v>
       </c>
       <c r="N13" s="8">
-        <v>-0.60356926918029785</v>
+        <v>3.5386323928833008E-2</v>
       </c>
       <c r="O13" s="10">
-        <v>-0.45686280727386475</v>
+        <v>-0.30932986736297607</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>309</v>
       </c>
       <c r="B14" s="8">
-        <v>-0.48294675350189209</v>
+        <v>-0.96238219738006592</v>
       </c>
       <c r="C14" s="8">
-        <v>-0.96464967727661133</v>
+        <v>-0.69480037689208984</v>
       </c>
       <c r="D14" s="8">
-        <v>-0.35560047626495361</v>
+        <v>-0.15977728366851807</v>
       </c>
       <c r="E14" s="8">
-        <v>0.20043063163757324</v>
+        <v>9.6847772598266602E-2</v>
       </c>
       <c r="F14" s="8">
-        <v>-0.24219882488250732</v>
+        <v>0.1168895959854126</v>
       </c>
       <c r="G14" s="8">
-        <v>0.28429794311523438</v>
+        <v>0.56201314926147461</v>
       </c>
       <c r="H14" s="8">
-        <v>0.48398244380950928</v>
+        <v>-0.91410458087921143</v>
       </c>
       <c r="I14" s="8">
-        <v>0.42240452766418457</v>
+        <v>-0.18851017951965332</v>
       </c>
       <c r="J14" s="8">
-        <v>-0.63028848171234131</v>
+        <v>-0.88201701641082764</v>
       </c>
       <c r="K14" s="8">
-        <v>-0.88492918014526367</v>
+        <v>-0.37632560729980469</v>
       </c>
       <c r="L14" s="8">
-        <v>-0.50784790515899658</v>
+        <v>0.20608747005462646</v>
       </c>
       <c r="M14" s="8">
-        <v>-0.60356926918029785</v>
+        <v>3.5386323928833008E-2</v>
       </c>
       <c r="N14" s="8">
         <v>1</v>
       </c>
       <c r="O14" s="10">
-        <v>0.71393442153930664</v>
+        <v>0.36850357055664063</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="11" t="s">
         <v>311</v>
       </c>
       <c r="B15" s="12">
-        <v>-0.64506053924560547</v>
+        <v>-0.34074926376342773</v>
       </c>
       <c r="C15" s="12">
-        <v>0.31209695339202881</v>
+        <v>0.81859672069549561</v>
       </c>
       <c r="D15" s="12">
-        <v>0.81794381141662598</v>
+        <v>0.54014372825622559</v>
       </c>
       <c r="E15" s="12">
-        <v>-0.45655477046966553</v>
+        <v>0.15174782276153564</v>
       </c>
       <c r="F15" s="12">
-        <v>-0.48718500137329102</v>
+        <v>-0.13679981231689453</v>
       </c>
       <c r="G15" s="12">
-        <v>0.54208362102508545</v>
+        <v>0.465049147605896</v>
       </c>
       <c r="H15" s="12">
-        <v>0.51714396476745605</v>
+        <v>-0.67411589622497559</v>
       </c>
       <c r="I15" s="12">
-        <v>-0.22163569927215576</v>
+        <v>-0.88076627254486084</v>
       </c>
       <c r="J15" s="12">
-        <v>-0.68950080871582031</v>
+        <v>-0.51337862014770508</v>
       </c>
       <c r="K15" s="12">
-        <v>0.14170682430267334</v>
+        <v>0.51714885234832764</v>
       </c>
       <c r="L15" s="12">
-        <v>-0.75975298881530762</v>
+        <v>0.90249514579772949</v>
       </c>
       <c r="M15" s="12">
-        <v>-0.45686280727386475</v>
+        <v>-0.30932986736297607</v>
       </c>
       <c r="N15" s="12">
-        <v>0.71393442153930664</v>
+        <v>0.36850357055664063</v>
       </c>
       <c r="O15" s="13">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:15" s="8" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
